--- a/MPartner_V2(12feb2021).xlsx
+++ b/MPartner_V2(12feb2021).xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Partner Certificate" sheetId="2" r:id="rId1"/>
     <sheet name="Check Serial No.Warranty Status" sheetId="8" r:id="rId2"/>
     <sheet name="ewwarranty" sheetId="10" r:id="rId3"/>
-    <sheet name="BugReport" sheetId="4" r:id="rId4"/>
-    <sheet name="Survey" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary" sheetId="7" r:id="rId6"/>
+    <sheet name="Dealer Options" sheetId="11" r:id="rId4"/>
+    <sheet name="BugReport" sheetId="4" r:id="rId5"/>
+    <sheet name="Survey" sheetId="5" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="270">
   <si>
     <t>Project Name:-&gt;Mpartner Revamp</t>
   </si>
@@ -963,6 +964,33 @@
       </rPr>
       <t xml:space="preserve"> is newly added in the report section</t>
     </r>
+  </si>
+  <si>
+    <t>Page is going into Loading state while clicking on dealer option</t>
+  </si>
+  <si>
+    <t>Bug ID_3</t>
+  </si>
+  <si>
+    <t>Dealer Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if the User is able to get navigate to Dealer Options screen.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Click on the Dealer  option available under side menu.                                                          </t>
+  </si>
+  <si>
+    <t>Check Dealer Option screen should get open as per Mock Screen</t>
+  </si>
+  <si>
+    <t>Dealer Option_TC1</t>
+  </si>
+  <si>
+    <t>Dealer Otipns</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,6 +1288,12 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1326,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1431,60 +1465,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,9 +1488,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1537,13 +1520,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,6 +1543,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1849,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,138 +1909,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="54" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="55" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="55" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="55" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="55" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="63" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="65">
         <v>14001</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="50">
         <v>44239</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2010,24 +2060,24 @@
       <c r="J6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="85" t="s">
+      <c r="M6" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="65">
         <v>14001</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="50">
         <v>44239</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -2047,24 +2097,24 @@
       <c r="J7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="65">
         <v>14001</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="50">
         <v>44239</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2084,24 +2134,24 @@
       <c r="J8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="65">
         <v>14001</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="50">
         <v>44239</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -2121,152 +2171,152 @@
       <c r="J9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="65">
         <v>14001</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="50">
         <v>44239</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="45" t="s">
         <v>116</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="61" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="61" t="s">
+      <c r="I10" s="67"/>
+      <c r="J10" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="65">
         <v>14001</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="50">
         <v>44239</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="45" t="s">
         <v>120</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="61" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="61" t="s">
+      <c r="I11" s="67"/>
+      <c r="J11" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="65">
         <v>14001</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="50">
         <v>44239</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="45" t="s">
         <v>124</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="61" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="61" t="s">
+      <c r="I12" s="67"/>
+      <c r="J12" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="88"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2344,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,67 +2412,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -2430,307 +2480,319 @@
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="49">
         <v>14001</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="50">
         <v>44239</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="68" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="49">
         <v>14001</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="50">
         <v>44239</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="49">
         <v>14001</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="50">
         <v>44239</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="68" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="49">
         <v>14001</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="50">
         <v>44239</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="68" t="s">
+      <c r="I9" s="38"/>
+      <c r="J9" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="49">
         <v>14001</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="50">
         <v>44239</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="68" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-    </row>
-    <row r="11" spans="1:13" s="58" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="42" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="49">
         <v>14001</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="50">
         <v>44239</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72" t="s">
+      <c r="G11" s="54"/>
+      <c r="H11" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71" t="s">
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="38" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="49">
         <v>14001</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="50">
         <v>44239</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="68" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="49">
         <v>14001</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="50">
         <v>44239</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="68" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2748,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,67 +2828,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -2834,59 +2896,59 @@
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2916,7 +2978,7 @@
       <c r="I6" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="56" t="s">
         <v>166</v>
       </c>
       <c r="K6" s="25" t="s">
@@ -2951,7 +3013,7 @@
       <c r="I7" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="56" t="s">
         <v>173</v>
       </c>
       <c r="K7" s="25" t="s">
@@ -3019,7 +3081,7 @@
       <c r="I9" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="56" t="s">
         <v>184</v>
       </c>
       <c r="K9" s="25" t="s">
@@ -3120,7 +3182,7 @@
       <c r="I12" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="57" t="s">
         <v>199</v>
       </c>
       <c r="K12" s="25" t="s">
@@ -3379,17 +3441,17 @@
       <c r="F20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="90" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="J20" s="85"/>
-      <c r="K20" s="88" t="s">
+      <c r="J20" s="65"/>
+      <c r="K20" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85" t="s">
+      <c r="L20" s="65"/>
+      <c r="M20" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3415,8 +3477,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="49">
+        <v>14001</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44239</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,7 +3683,7 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
@@ -3432,48 +3691,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="45"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3482,8 +3741,8 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -3533,7 +3792,7 @@
       <c r="A5" s="7">
         <v>44218</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="38" t="s">
         <v>146</v>
       </c>
       <c r="C5" t="s">
@@ -3542,13 +3801,13 @@
       <c r="D5">
         <v>13675</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="93" t="s">
         <v>241</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="51" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3556,7 +3815,7 @@
       <c r="A6" s="7">
         <v>44218</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="38" t="s">
         <v>150</v>
       </c>
       <c r="C6" t="s">
@@ -3565,14 +3824,34 @@
       <c r="D6">
         <v>13675</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="94" t="s">
         <v>153</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="54" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44243</v>
+      </c>
+      <c r="B7" s="50">
+        <v>44239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3588,12 +3867,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,15 +3892,15 @@
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -3632,17 +3911,17 @@
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="11" t="s">
         <v>3</v>
       </c>
@@ -3664,15 +3943,15 @@
       <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="88"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -3752,7 +4031,7 @@
       <c r="A6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="49">
         <v>14001</v>
       </c>
       <c r="C6" s="19">
@@ -3785,7 +4064,7 @@
       <c r="A7" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="49">
         <v>14001</v>
       </c>
       <c r="C7" s="19">
@@ -3818,7 +4097,7 @@
       <c r="A8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="49">
         <v>14001</v>
       </c>
       <c r="C8" s="19">
@@ -3851,7 +4130,7 @@
       <c r="A9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="49">
         <v>14001</v>
       </c>
       <c r="C9" s="19">
@@ -3884,7 +4163,7 @@
       <c r="A10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="49">
         <v>14001</v>
       </c>
       <c r="C10" s="19">
@@ -3917,7 +4196,7 @@
       <c r="A11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="49">
         <v>14001</v>
       </c>
       <c r="C11" s="19">
@@ -3950,7 +4229,7 @@
       <c r="A12" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="49">
         <v>14001</v>
       </c>
       <c r="C12" s="19">
@@ -3985,7 +4264,7 @@
       <c r="A13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="49">
         <v>14001</v>
       </c>
       <c r="C13" s="19">
@@ -4020,7 +4299,7 @@
       <c r="A14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="49">
         <v>14001</v>
       </c>
       <c r="C14" s="19">
@@ -4055,7 +4334,7 @@
       <c r="A15" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="49">
         <v>14001</v>
       </c>
       <c r="C15" s="19">
@@ -4090,7 +4369,7 @@
       <c r="A16" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="49">
         <v>14001</v>
       </c>
       <c r="C16" s="19">
@@ -4133,37 +4412,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -4251,25 +4530,43 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="31">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="28">
-        <f>SUM(B4:B7)</f>
-        <v>69</v>
-      </c>
-      <c r="C8" s="28">
-        <f>SUM(C4:C7)</f>
-        <v>28</v>
-      </c>
-      <c r="D8" s="29">
-        <f>SUM(D4:D7)</f>
+      <c r="B9" s="28">
+        <f>SUM(B4:B8)</f>
+        <v>70</v>
+      </c>
+      <c r="C9" s="28">
+        <f>SUM(C4:C8)</f>
+        <v>29</v>
+      </c>
+      <c r="D9" s="29">
+        <f>SUM(D5:D8)</f>
         <v>12</v>
       </c>
-      <c r="E8" s="30">
-        <f>SUM(E4:E7)</f>
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="E9" s="30">
+        <f>SUM(E5:E8)</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>113</v>
       </c>
     </row>
